--- a/禄昌恒最终表格/2019/12月日报表.xlsx
+++ b/禄昌恒最终表格/2019/12月日报表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>备注：</t>
   </si>
@@ -51,9 +51,6 @@
     <t>30pcs</t>
   </si>
   <si>
-    <t>974 pcs</t>
-  </si>
-  <si>
     <t>2000PCS</t>
   </si>
   <si>
@@ -82,26 +79,14 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Zp518014 订单号：CG201911200049</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>1500pcs</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>ZP518024 订单号：CG201911200049</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>600pcs</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Zp328851 订单号：CG201911200021</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>ZP138322 订单号：CG201911220010</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -126,19 +111,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>ZP511913  订单号：CG201911250002</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>天敏</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>zp519302 订单号:CG201911220032</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZP528821 订单号:CG201911220032</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -172,6 +145,46 @@
       </rPr>
       <t>禄昌恒12月份出货日报表</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>974 pcs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zp328851 订单号：CG201911200021</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣弗罗尔</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP528821 订单号:CG201911220032</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣弗罗尔</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP511913  订单号：CG201911250002</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>天敏</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zp518014 订单号：CG201911200049</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>广运</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP518024 订单号：CG201911200049</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -574,7 +587,7 @@
   <dimension ref="A2:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -590,7 +603,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -630,43 +643,43 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>17</v>
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -674,62 +687,62 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>17</v>
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>15</v>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -737,20 +750,20 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -761,17 +774,17 @@
         <v>34</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -779,7 +792,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
@@ -789,10 +802,10 @@
         <v>8</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -800,19 +813,21 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>

--- a/禄昌恒最终表格/2019/12月日报表.xlsx
+++ b/禄昌恒最终表格/2019/12月日报表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
   <si>
     <t>备注：</t>
   </si>
@@ -100,10 +100,6 @@
   </si>
   <si>
     <t>计划2019-12-09</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划2019-12-10</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -172,19 +168,75 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>Zp518014 订单号：CG201911200049</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>广运</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP518024 订单号：CG201911200049</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>40Pcs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>600pcs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1400 pcs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2100pcs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP511913 订单号:CG201912060003</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>天敏</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Zp518014 订单号：CG201911200049</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>广运</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZP518024 订单号：CG201911200049</t>
+    <t>天敏</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP518103/DS3288A-V1 订单号：CG201912050028</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zp516641/swh5166-Ⅴ4 订单号：CG201912050028</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zp518432/CCL5184-V2 订单号：CG201912050028</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划2019-12-08</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP000004</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1050PCS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>zp960012(待资料)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏新</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -192,7 +244,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +308,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -292,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -309,6 +369,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -587,7 +648,7 @@
   <dimension ref="A2:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -603,7 +664,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -649,7 +710,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -666,14 +727,14 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -687,14 +748,14 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>24</v>
@@ -708,14 +769,14 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>23</v>
@@ -750,7 +811,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
@@ -760,7 +821,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>15</v>
@@ -771,14 +832,14 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>24</v>
@@ -792,7 +853,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
@@ -802,7 +863,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>15</v>
@@ -813,17 +874,17 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>16</v>
@@ -844,63 +905,103 @@
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="F14" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="D15" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="D16" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="F17" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
+      <c r="A18" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>

--- a/禄昌恒最终表格/2019/12月日报表.xlsx
+++ b/禄昌恒最终表格/2019/12月日报表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
   <si>
     <t>备注：</t>
   </si>
@@ -224,19 +224,128 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>苏新</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80PCS</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00PCS</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10PCS</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00PCS</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1050PCS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>进新</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zp518432/CCL5184-V2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>40Pcs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP106401 订单号：CG201912060021</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP107301 订单号：CG201912060021</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP318814 订单号：CG201912060021</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP519034 订单号：CG201912060021</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>zp960012(待资料)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 订单号：CG201912040012</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>ZP000004</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1050PCS</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>zp960012(待资料)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>苏新</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -360,6 +469,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -369,7 +479,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -645,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I23"/>
+  <dimension ref="A2:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -663,19 +772,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -696,11 +805,11 @@
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -732,7 +841,9 @@
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>37</v>
       </c>
@@ -747,20 +858,22 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="3"/>
@@ -774,7 +887,9 @@
       <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>32</v>
       </c>
@@ -795,7 +910,9 @@
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
@@ -816,7 +933,9 @@
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
@@ -831,20 +950,22 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="3"/>
@@ -858,7 +979,9 @@
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
@@ -873,20 +996,22 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="3"/>
@@ -981,31 +1106,35 @@
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>50</v>
+      <c r="A18" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="8" t="s">
-        <v>53</v>
+      <c r="F18" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>51</v>
+      <c r="A19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="D19" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="F19" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -1022,10 +1151,16 @@
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="D21" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1033,26 +1168,186 @@
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+      <c r="A22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="D22" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="F22" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="D23" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/禄昌恒最终表格/2019/12月日报表.xlsx
+++ b/禄昌恒最终表格/2019/12月日报表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="82">
   <si>
     <t>备注：</t>
   </si>
@@ -188,35 +188,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1400 pcs</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>2100pcs</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>ZP511913 订单号:CG201912060003</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>天敏</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>天敏</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZP518103/DS3288A-V1 订单号：CG201912050028</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zp516641/swh5166-Ⅴ4 订单号：CG201912050028</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zp518432/CCL5184-V2 订单号：CG201912050028</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -304,27 +280,53 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Zp518432/CCL5184-V2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>40Pcs</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZP106401 订单号：CG201912060021</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>ZP107301 订单号：CG201912060021</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>ZP318814 订单号：CG201912060021</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZP519034 订单号：CG201912060021</t>
+    <t>计划2019-12-15</t>
+  </si>
+  <si>
+    <t>计划2019-12-15</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>20PCS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划2019-12-18</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划2019-12-25</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP139902</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划2019-12-13</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划2019-12-17</t>
+  </si>
+  <si>
+    <t>计划2019-12-17</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划2019-12-18</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划2019-12-15</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>田小姐</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -345,7 +347,71 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>圣弗罗尔</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP106401 订单号：CG201912060021</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣弗罗尔</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP318814 订单号：CG201912060021</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣弗罗尔</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP518103/DS3288A-V1 订单号：CG201912050028</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zp516641/swh5166-Ⅴ4 订单号：CG201912050028</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1400 pcs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP511913 订单号:CG201912060003</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>天敏</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP519034 订单号：CG201912060021</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zp518432/CCL5184-V2 订单号：CG201912050028</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>550pcs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>55pcs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>ZP000004</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP518103/DS3288A-V1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zp519112/LED.3399.B</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -754,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I35"/>
+  <dimension ref="A2:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1006,10 +1072,10 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>16</v>
@@ -1031,16 +1097,18 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="F14" s="4" t="s">
         <v>15</v>
       </c>
@@ -1050,16 +1118,18 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="F15" s="4" t="s">
         <v>16</v>
       </c>
@@ -1069,16 +1139,18 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="F16" s="4" t="s">
         <v>16</v>
       </c>
@@ -1088,16 +1160,18 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="F17" s="4" t="s">
         <v>16</v>
       </c>
@@ -1107,14 +1181,16 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="E18" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="F18" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1122,63 +1198,81 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="F19" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="D20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="F22" s="5" t="s">
         <v>50</v>
       </c>
@@ -1188,64 +1282,76 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>56</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="5" t="s">
+      <c r="A24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>58</v>
+      <c r="A25" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+      <c r="A26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="F26" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -1326,28 +1432,6 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/禄昌恒最终表格/2019/12月日报表.xlsx
+++ b/禄昌恒最终表格/2019/12月日报表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="83">
   <si>
     <t>备注：</t>
   </si>
@@ -403,15 +403,19 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>ZP000004</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>ZP518103/DS3288A-V1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Zp519112/LED.3399.B</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP000004 订单号:CG201912040005</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>500PCS</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1181,11 +1185,15 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="D18" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E18" s="4" t="s">
         <v>53</v>
       </c>
@@ -1324,7 +1332,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>77</v>
@@ -1341,7 +1349,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>78</v>

--- a/禄昌恒最终表格/2019/12月日报表.xlsx
+++ b/禄昌恒最终表格/2019/12月日报表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="90">
   <si>
     <t>备注：</t>
   </si>
@@ -280,10 +280,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>ZP107301 订单号：CG201912060021</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>计划2019-12-15</t>
   </si>
   <si>
@@ -303,10 +299,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>ZP139902</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>计划2019-12-13</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -319,10 +311,6 @@
   </si>
   <si>
     <t>计划2019-12-18</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划2019-12-15</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -399,15 +387,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>55pcs</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZP518103/DS3288A-V1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zp519112/LED.3399.B</t>
+    <t>500PCS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>40pcs</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -415,7 +399,50 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>500PCS</t>
+    <t>圣弗罗尔</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP107301 订单号：CG201912060021</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>200PCS</t>
+  </si>
+  <si>
+    <t>120pcs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划2019-12-18</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP312811 订单号：CG201912100008</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP136722/HJ1367-Ⅴ2.1 订单号：CG201912110015</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP518103/DS3288A-V1 订单号：CG201912110015</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zp519112/LED.3399.B 订单号：CG201912110015</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP139902 无订单号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划2019-12-14</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>260pcs (订单合同需更新)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -827,13 +854,13 @@
   <dimension ref="A2:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="52.75" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="30.875" customWidth="1"/>
@@ -1100,20 +1127,22 @@
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="D14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="3"/>
@@ -1122,17 +1151,17 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>16</v>
@@ -1143,17 +1172,17 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>16</v>
@@ -1164,17 +1193,17 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>16</v>
@@ -1185,17 +1214,17 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="4" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>44</v>
@@ -1206,17 +1235,17 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>50</v>
@@ -1227,17 +1256,17 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>50</v>
@@ -1248,17 +1277,17 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="4" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>44</v>
@@ -1269,17 +1298,17 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>50</v>
@@ -1290,17 +1319,17 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>16</v>
@@ -1311,17 +1340,17 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>15</v>
@@ -1332,13 +1361,15 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="D25" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="4" t="s">
         <v>16</v>
@@ -1349,13 +1380,15 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="D26" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E26" s="3"/>
       <c r="F26" s="4" t="s">
         <v>16</v>
@@ -1365,21 +1398,37 @@
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
+      <c r="A27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="D27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
+      <c r="A28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="D28" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>

--- a/禄昌恒最终表格/2019/12月日报表.xlsx
+++ b/禄昌恒最终表格/2019/12月日报表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="94">
   <si>
     <t>备注：</t>
   </si>
@@ -205,23 +205,6 @@
   </si>
   <si>
     <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>80PCS</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>5</t>
     </r>
     <r>
@@ -234,23 +217,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>00PCS</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10PCS</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -281,9 +247,6 @@
   </si>
   <si>
     <t>计划2019-12-15</t>
-  </si>
-  <si>
-    <t>计划2019-12-15</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -403,22 +366,93 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>200PCS</t>
+  </si>
+  <si>
+    <t>120pcs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划2019-12-18</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP139902 无订单号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2100pcs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>20pcs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0pcs</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP312811 订单号：CG201912100008</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>ZP107301 订单号：CG201912060021</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>200PCS</t>
-  </si>
-  <si>
-    <t>120pcs</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划2019-12-18</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZP312811 订单号：CG201912100008</t>
+    <r>
+      <t>计划2019-12-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>计划2019-12-14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(出样品)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP518103/DS3288A-V1 订单号：CG201912110015</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zp519112/LED.3399.B 订单号：CG201912110015</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -426,23 +460,19 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>ZP518103/DS3288A-V1 订单号：CG201912110015</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zp519112/LED.3399.B 订单号：CG201912110015</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZP139902 无订单号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划2019-12-14</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>260pcs (订单合同需更新)</t>
+    <t>500pcs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>280PCS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>810PCS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>260pcs</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -558,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -576,6 +606,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -854,7 +885,7 @@
   <dimension ref="A2:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1128,19 +1159,19 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>15</v>
@@ -1151,17 +1182,17 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>16</v>
@@ -1172,17 +1203,17 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>16</v>
@@ -1191,42 +1222,46 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="4" t="s">
+      <c r="C17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="5" t="s">
+      <c r="E18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G18" s="3"/>
@@ -1235,41 +1270,45 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="D19" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>88</v>
+        <v>59</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>50</v>
+      <c r="A20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1277,17 +1316,17 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>51</v>
+        <v>75</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>44</v>
@@ -1297,21 +1336,23 @@
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>50</v>
+      <c r="A22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1319,17 +1360,17 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>16</v>
@@ -1339,20 +1380,22 @@
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="4" t="s">
+      <c r="A24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="3"/>
@@ -1360,17 +1403,19 @@
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>85</v>
+      <c r="A25" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="F25" s="4" t="s">
         <v>16</v>
       </c>
@@ -1379,17 +1424,19 @@
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>89</v>
+      <c r="A26" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="F26" s="4" t="s">
         <v>16</v>
       </c>
@@ -1398,18 +1445,18 @@
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>16</v>
@@ -1419,18 +1466,20 @@
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>84</v>
+      <c r="A28" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="F28" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>

--- a/禄昌恒最终表格/2019/12月日报表.xlsx
+++ b/禄昌恒最终表格/2019/12月日报表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\main\禄昌恒\禄昌恒最终表格\2019\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B641C9-EC71-487A-A74D-33F98A76E160}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -191,7 +197,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -583,25 +589,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.75" customWidth="1"/>
+    <col min="1" max="1" width="52.77734375" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="30.875" customWidth="1"/>
-    <col min="6" max="6" width="56.125" customWidth="1"/>
-    <col min="9" max="9" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="30.88671875" customWidth="1"/>
+    <col min="6" max="6" width="56.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="25.8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -616,7 +622,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -641,7 +647,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -664,7 +670,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>38</v>
       </c>
@@ -685,7 +691,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>40</v>
       </c>
@@ -706,7 +712,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
@@ -727,7 +733,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -748,7 +754,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -769,7 +775,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>34</v>
       </c>
@@ -790,7 +796,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -811,7 +817,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>36</v>
       </c>
@@ -832,7 +838,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -843,7 +849,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -854,7 +860,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -865,7 +871,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -876,7 +882,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -887,7 +893,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -898,7 +904,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -909,7 +915,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -920,7 +926,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -931,7 +937,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -942,7 +948,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>

--- a/禄昌恒最终表格/2019/12月日报表.xlsx
+++ b/禄昌恒最终表格/2019/12月日报表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\main\禄昌恒\禄昌恒最终表格\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B641C9-EC71-487A-A74D-33F98A76E160}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70EB805-CD47-4AA0-9823-749058743C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
   <si>
     <t>备注：</t>
   </si>
@@ -191,6 +191,332 @@
   </si>
   <si>
     <t>ZP518024 订单号：CG201911200049</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP518432</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>40PCS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP518103</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP516641</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP511913</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP000004</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP960012</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP106401</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP107301</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>zp318814</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>zp519034</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>zp139902</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>zp518103</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>zp519112</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>zp312811</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>zp136722</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>zp003002</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>600</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PCS</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PCS</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PCS</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PCS</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1050</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PCS</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>280</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PCS</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>810</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PCS</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PCS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PCS</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>550</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PCS</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>260</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PCS</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>120</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PCS</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PCS</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>115</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PCS</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PCS</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1272PCS</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -198,7 +524,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +588,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -298,7 +632,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -315,6 +649,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -590,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I23"/>
+  <dimension ref="A2:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -850,9 +1186,15 @@
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -861,9 +1203,15 @@
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -872,9 +1220,15 @@
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -883,9 +1237,15 @@
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -894,9 +1254,15 @@
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -905,9 +1271,15 @@
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -916,9 +1288,15 @@
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -927,9 +1305,15 @@
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -938,9 +1322,15 @@
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -949,15 +1339,123 @@
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
